--- a/data/sentiment/AAII Sentiment.xlsx
+++ b/data/sentiment/AAII Sentiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ACAC39-448E-425E-B55A-61925F84A02A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4E2F17-1073-458F-815D-AAF8D15A5CAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14535" yWindow="780" windowWidth="21315" windowHeight="20745" xr2:uid="{B930A3EF-683B-794B-B2E4-40886DCBD301}"/>
   </bookViews>
@@ -494,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0913BF80-75CB-A349-8F9C-C38844F715A9}">
-  <dimension ref="A1:G2008"/>
+  <dimension ref="A1:G2009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H1988" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J2007" sqref="J2007"/>
+      <selection pane="bottomRight" activeCell="G2016" sqref="G2016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34654,6 +34654,23 @@
       </c>
       <c r="G2008" s="7">
         <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2009" s="6">
+        <v>46043</v>
+      </c>
+      <c r="B2009" s="6">
+        <v>46044</v>
+      </c>
+      <c r="E2009" s="7">
+        <v>0.432</v>
+      </c>
+      <c r="F2009" s="7">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G2009" s="7">
+        <v>0.32700000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/sentiment/AAII Sentiment.xlsx
+++ b/data/sentiment/AAII Sentiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4E2F17-1073-458F-815D-AAF8D15A5CAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB5BBCF-B1B5-43DE-AE9A-5DD9E5973CC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14535" yWindow="780" windowWidth="21315" windowHeight="20745" xr2:uid="{B930A3EF-683B-794B-B2E4-40886DCBD301}"/>
   </bookViews>
@@ -494,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0913BF80-75CB-A349-8F9C-C38844F715A9}">
-  <dimension ref="A1:G2009"/>
+  <dimension ref="A1:G2012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H1988" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G2016" sqref="G2016"/>
+      <selection pane="bottomRight" activeCell="I2008" sqref="I2008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34673,10 +34673,52 @@
         <v>0.32700000000000001</v>
       </c>
     </row>
+    <row r="2010" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2010" s="6">
+        <v>46050</v>
+      </c>
+      <c r="B2010" s="6">
+        <v>46051</v>
+      </c>
+      <c r="E2010" s="7">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F2010" s="7">
+        <v>0.248</v>
+      </c>
+      <c r="G2010" s="7">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2011" s="6">
+        <v>46057</v>
+      </c>
+      <c r="B2011" s="6">
+        <v>46058</v>
+      </c>
+      <c r="E2011" s="7">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="F2011" s="7">
+        <v>0.313</v>
+      </c>
+      <c r="G2011" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2012" s="6">
+        <v>46064</v>
+      </c>
+      <c r="B2012" s="6">
+        <v>46065</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/sentiment/AAII Sentiment.xlsx
+++ b/data/sentiment/AAII Sentiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB5BBCF-B1B5-43DE-AE9A-5DD9E5973CC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A4AB77-8F8F-48FF-9D95-843B32359C5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14535" yWindow="780" windowWidth="21315" windowHeight="20745" xr2:uid="{B930A3EF-683B-794B-B2E4-40886DCBD301}"/>
   </bookViews>
@@ -500,7 +500,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H1988" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I2008" sqref="I2008"/>
+      <selection pane="bottomRight" activeCell="F2016" sqref="F2016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34713,6 +34713,15 @@
       </c>
       <c r="B2012" s="6">
         <v>46065</v>
+      </c>
+      <c r="E2012" s="7">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F2012" s="7">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G2012" s="7">
+        <v>0.38100000000000001</v>
       </c>
     </row>
   </sheetData>
